--- a/SistemaContrl.xlsx
+++ b/SistemaContrl.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="240" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="240" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Veículos" sheetId="1" r:id="rId1"/>
     <sheet name="Seguros" sheetId="2" r:id="rId2"/>
     <sheet name="Motoristas" sheetId="3" r:id="rId3"/>
-    <sheet name="Viagens" sheetId="4" r:id="rId4"/>
-    <sheet name="Entrada e Saída" sheetId="5" r:id="rId5"/>
+    <sheet name="Entrada e Saída" sheetId="5" r:id="rId4"/>
+    <sheet name="Viagens" sheetId="4" r:id="rId5"/>
     <sheet name="Finanças" sheetId="6" r:id="rId6"/>
     <sheet name="Estoque de Peças" sheetId="7" r:id="rId7"/>
     <sheet name="Pneus" sheetId="8" r:id="rId8"/>
@@ -29,7 +29,7 @@
     <sheet name="Relatórios" sheetId="15" r:id="rId15"/>
     <sheet name="Aluguel de veículos" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,9 +38,144 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">Finanças </t>
+  </si>
+  <si>
+    <t>Esta planilha cuida dos custeios dos valores Recebidos pelos clientes menos custos das viagens e o valor liquido de cada viagem.</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Valor Serviço</t>
+  </si>
+  <si>
+    <t>Motorista</t>
+  </si>
+  <si>
+    <t>Veiculo</t>
+  </si>
+  <si>
+    <t>Custo para combustivel</t>
+  </si>
+  <si>
+    <t>Custo para pedagio</t>
+  </si>
+  <si>
+    <t>Custos Alimentação/Pousada</t>
+  </si>
+  <si>
+    <t>Custos Manutenção emergencial</t>
+  </si>
+  <si>
+    <t>Valor Liquido contrato</t>
+  </si>
+  <si>
+    <t>Samsung do Brasil</t>
+  </si>
+  <si>
+    <t>Edvaldo</t>
+  </si>
+  <si>
+    <t>Iveco stralis</t>
+  </si>
+  <si>
+    <t>Claro Brasil S/a</t>
+  </si>
+  <si>
+    <t>Antonio sousa</t>
+  </si>
+  <si>
+    <t>VW 25-390 6X2 CONSTELLATION</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>DrogaFarma</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Fiat Strada</t>
+  </si>
+  <si>
+    <t>Manutenção Corretivas e Preventivas</t>
+  </si>
+  <si>
+    <t>Esta planilha cuida do tempo de manutenção para de todos os veículos</t>
+  </si>
+  <si>
+    <t>Veículo</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Ano Fab/Mod</t>
+  </si>
+  <si>
+    <t>Ultima troca de Oleo</t>
+  </si>
+  <si>
+    <t>Proxima troca de Oleo</t>
+  </si>
+  <si>
+    <t>Ultima troca correia</t>
+  </si>
+  <si>
+    <t>Data para Rodizio de Pneus</t>
+  </si>
+  <si>
+    <t>ESD5678</t>
+  </si>
+  <si>
+    <t>BSW2200</t>
+  </si>
+  <si>
+    <t>DSF9009</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2010/2012</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>15/11/2018</t>
+  </si>
+  <si>
+    <t>15/04/2018</t>
+  </si>
+  <si>
+    <t>23/01/2016</t>
+  </si>
+  <si>
+    <t>Ações</t>
+  </si>
+  <si>
+    <t>Trocar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trocar </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]* #,##0.00_-;\-[$R$-416]* #,##0.00_-;_-[$R$-416]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +183,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -65,17 +242,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -446,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -511,6 +818,295 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="47.25" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5890</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="12">
+        <v>380</v>
+      </c>
+      <c r="F5" s="12">
+        <v>245</v>
+      </c>
+      <c r="G5" s="12">
+        <v>300</v>
+      </c>
+      <c r="H5" s="12">
+        <v>450</v>
+      </c>
+      <c r="I5" s="12">
+        <f>B5-E5-F5-G5-H5</f>
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="12">
+        <v>504</v>
+      </c>
+      <c r="G6" s="12">
+        <v>890</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1300</v>
+      </c>
+      <c r="I6" s="12">
+        <f>B6-E6-F6-G6-H6</f>
+        <v>6106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12">
+        <v>3500</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11">
+        <v>290</v>
+      </c>
+      <c r="F7" s="11">
+        <v>60</v>
+      </c>
+      <c r="G7" s="11">
+        <v>60</v>
+      </c>
+      <c r="H7" s="11">
+        <v>25</v>
+      </c>
+      <c r="I7" s="11">
+        <f>B7-E7-F7-G7-H7</f>
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="11">
+        <f>SUM(I5:I15)</f>
+        <v>13686</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -522,7 +1118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -535,27 +1131,332 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:K1048576"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="62.25" thickTop="1" x14ac:dyDescent="0.9">
+      <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="1048576" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1048576" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
